--- a/teaching/traditional_assets/database/data/chile/chile_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/chile/chile_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0407</v>
+        <v>0.0258</v>
       </c>
       <c r="E2">
-        <v>0.064</v>
+        <v>-0.08349999999999999</v>
       </c>
       <c r="G2">
-        <v>0.4423277639651412</v>
+        <v>0.6501824286130287</v>
       </c>
       <c r="H2">
-        <v>0.4385856237324667</v>
+        <v>0.647775741276829</v>
       </c>
       <c r="I2">
-        <v>0.5646176811275422</v>
+        <v>0.439655997345564</v>
       </c>
       <c r="J2">
-        <v>0.4916217165825025</v>
+        <v>0.3964472881891506</v>
       </c>
       <c r="K2">
-        <v>730.1</v>
+        <v>311.25</v>
       </c>
       <c r="L2">
-        <v>0.6195321051872343</v>
+        <v>0.266577022559482</v>
       </c>
       <c r="M2">
-        <v>429.8</v>
+        <v>195.303</v>
       </c>
       <c r="N2">
-        <v>0.07503098650559503</v>
+        <v>0.03207735895540773</v>
       </c>
       <c r="O2">
-        <v>0.588686481303931</v>
+        <v>0.6274795180722892</v>
       </c>
       <c r="P2">
-        <v>429.8</v>
+        <v>195.303</v>
       </c>
       <c r="Q2">
-        <v>0.07503098650559503</v>
+        <v>0.03207735895540773</v>
       </c>
       <c r="R2">
-        <v>0.588686481303931</v>
+        <v>0.6274795180722892</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>417.46</v>
+        <v>1100.807</v>
       </c>
       <c r="V2">
-        <v>0.07287676972225617</v>
+        <v>0.1808010183132134</v>
       </c>
       <c r="W2">
-        <v>0.08178144764581868</v>
+        <v>0.02797342221621365</v>
       </c>
       <c r="X2">
-        <v>0.06673175066094515</v>
+        <v>0.0420766130751221</v>
       </c>
       <c r="Y2">
-        <v>0.01504969698487353</v>
+        <v>-0.01410319085890846</v>
       </c>
       <c r="Z2">
-        <v>0.1554288790876173</v>
+        <v>0.1359595819076948</v>
       </c>
       <c r="AA2">
-        <v>0.00909430138199272</v>
+        <v>0.0794615043230838</v>
       </c>
       <c r="AB2">
-        <v>0.05163395239135465</v>
+        <v>0.03966692153765469</v>
       </c>
       <c r="AC2">
-        <v>-0.04407958669601938</v>
+        <v>0.04046916328738272</v>
       </c>
       <c r="AD2">
-        <v>3139.94</v>
+        <v>3375.885</v>
       </c>
       <c r="AE2">
-        <v>30.62500660812696</v>
+        <v>0.5972530963316496</v>
       </c>
       <c r="AF2">
-        <v>3170.565006608127</v>
+        <v>3376.482253096332</v>
       </c>
       <c r="AG2">
-        <v>2753.105006608127</v>
+        <v>2275.675253096331</v>
       </c>
       <c r="AH2">
-        <v>0.3562886957217269</v>
+        <v>0.3567341346035556</v>
       </c>
       <c r="AI2">
-        <v>0.2748941915143573</v>
+        <v>0.2735926985693472</v>
       </c>
       <c r="AJ2">
-        <v>0.3246048272029336</v>
+        <v>0.2720740759531431</v>
       </c>
       <c r="AK2">
-        <v>0.2476636800601939</v>
+        <v>0.2024538130230557</v>
       </c>
       <c r="AL2">
-        <v>181.205</v>
+        <v>225.277</v>
       </c>
       <c r="AM2">
-        <v>130.243</v>
+        <v>178.798</v>
       </c>
       <c r="AN2">
-        <v>4.430500486799961</v>
+        <v>6.375091352354767</v>
       </c>
       <c r="AO2">
-        <v>3.680969068182446</v>
+        <v>2.277951144590881</v>
       </c>
       <c r="AP2">
-        <v>3.884670749119</v>
+        <v>4.297432414546753</v>
       </c>
       <c r="AQ2">
-        <v>5.121273312193361</v>
+        <v>2.870110403919507</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Administradora de Fondos de Pensiones Habitat S.A. (SNSE:HABITAT)</t>
+          <t>Administradora de Fondos de Pensiones PlanVital S.A. (SNSE:PLANVITAL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0911</v>
-      </c>
-      <c r="E3">
-        <v>0.06150000000000001</v>
+        <v>0.462</v>
       </c>
       <c r="G3">
-        <v>0.4747198688166165</v>
+        <v>0.5784543325526932</v>
       </c>
       <c r="H3">
-        <v>0.4747198688166165</v>
+        <v>0.5784543325526932</v>
       </c>
       <c r="I3">
-        <v>0.6456736024279212</v>
+        <v>0.3770491803278689</v>
       </c>
       <c r="J3">
-        <v>0.476078779567973</v>
+        <v>0.2802732240437159</v>
       </c>
       <c r="K3">
-        <v>180.5</v>
+        <v>24.5</v>
       </c>
       <c r="L3">
-        <v>0.4933041814703471</v>
+        <v>0.2868852459016393</v>
       </c>
       <c r="M3">
-        <v>89.3</v>
+        <v>10.6</v>
       </c>
       <c r="N3">
-        <v>0.1002019748653501</v>
+        <v>0.06377858002406739</v>
       </c>
       <c r="O3">
-        <v>0.4947368421052631</v>
+        <v>0.4326530612244898</v>
       </c>
       <c r="P3">
-        <v>89.3</v>
+        <v>10.6</v>
       </c>
       <c r="Q3">
-        <v>0.1002019748653501</v>
+        <v>0.06377858002406739</v>
       </c>
       <c r="R3">
-        <v>0.4947368421052631</v>
+        <v>0.4326530612244898</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +770,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>78.90000000000001</v>
+        <v>46</v>
       </c>
       <c r="V3">
-        <v>0.08853231597845601</v>
+        <v>0.2767749699157642</v>
       </c>
       <c r="W3">
-        <v>0.3183983065796437</v>
+        <v>0.2505112474437628</v>
       </c>
       <c r="X3">
-        <v>0.05261610952220119</v>
+        <v>0.04059579605891181</v>
       </c>
       <c r="Y3">
-        <v>0.2657821970574425</v>
+        <v>0.209915451384851</v>
       </c>
       <c r="Z3">
-        <v>0.7099338329749472</v>
+        <v>1.176308539944904</v>
       </c>
       <c r="AA3">
-        <v>0.337984432776726</v>
+        <v>0.3296877869605143</v>
       </c>
       <c r="AB3">
-        <v>0.05174706382266088</v>
+        <v>0.03961931806228711</v>
       </c>
       <c r="AC3">
-        <v>0.2862373689540652</v>
+        <v>0.2900684688982271</v>
       </c>
       <c r="AD3">
-        <v>16.9</v>
+        <v>12.3</v>
       </c>
       <c r="AE3">
-        <v>22.39014435811829</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>39.29014435811829</v>
+        <v>12.3</v>
       </c>
       <c r="AG3">
-        <v>-39.60985564188172</v>
+        <v>-33.7</v>
       </c>
       <c r="AH3">
-        <v>0.0422252128046148</v>
+        <v>0.06890756302521009</v>
       </c>
       <c r="AI3">
-        <v>0.06256490601182532</v>
+        <v>0.1053984575835476</v>
       </c>
       <c r="AJ3">
-        <v>-0.04651281594121482</v>
+        <v>-0.2543396226415094</v>
       </c>
       <c r="AK3">
-        <v>-0.07213725478206369</v>
+        <v>-0.4766619519094767</v>
       </c>
       <c r="AL3">
-        <v>0.184</v>
+        <v>0.475</v>
       </c>
       <c r="AM3">
-        <v>-2.006</v>
+        <v>0.068</v>
       </c>
       <c r="AN3">
-        <v>0.06827455257948531</v>
+        <v>0.3784615384615385</v>
       </c>
       <c r="AO3">
-        <v>1294.021739130435</v>
+        <v>67.78947368421053</v>
       </c>
       <c r="AP3">
-        <v>-0.1600204243602057</v>
+        <v>-1.036923076923077</v>
       </c>
       <c r="AQ3">
-        <v>-118.6939182452642</v>
+        <v>473.5294117647059</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Administradora de Fondos de Pensiones Capital S.A. (SNSE:AFPCAPITAL)</t>
+          <t>Administradora de Fondos de Pensiones Habitat S.A. (SNSE:HABITAT)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,46 +856,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0407</v>
+        <v>0.11</v>
       </c>
       <c r="E4">
-        <v>0.0665</v>
+        <v>0.0522</v>
       </c>
       <c r="G4">
-        <v>0.3938301282051282</v>
+        <v>0.6960090574582508</v>
       </c>
       <c r="H4">
-        <v>0.3938301282051282</v>
+        <v>0.6960090574582508</v>
       </c>
       <c r="I4">
-        <v>0.5742108475560829</v>
+        <v>0.5181532674235314</v>
       </c>
       <c r="J4">
-        <v>0.4281363899149453</v>
+        <v>0.373889837119451</v>
       </c>
       <c r="K4">
-        <v>114.6</v>
+        <v>131.4</v>
       </c>
       <c r="L4">
-        <v>0.4591346153846154</v>
+        <v>0.371921879422587</v>
       </c>
       <c r="M4">
-        <v>64.8</v>
+        <v>51.5</v>
       </c>
       <c r="N4">
-        <v>0.05637724029928658</v>
+        <v>0.07231114855377703</v>
       </c>
       <c r="O4">
-        <v>0.5654450261780105</v>
+        <v>0.3919330289193303</v>
       </c>
       <c r="P4">
-        <v>64.8</v>
+        <v>51.5</v>
       </c>
       <c r="Q4">
-        <v>0.05637724029928658</v>
+        <v>0.07231114855377703</v>
       </c>
       <c r="R4">
-        <v>0.5654450261780105</v>
+        <v>0.3919330289193303</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +904,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>55.1</v>
+        <v>146.1</v>
       </c>
       <c r="V4">
-        <v>0.04793805463720201</v>
+        <v>0.2051390058972199</v>
       </c>
       <c r="W4">
-        <v>0.1733474512176675</v>
+        <v>0.2232036691014099</v>
       </c>
       <c r="X4">
-        <v>0.05192425260491283</v>
+        <v>0.04327972998022422</v>
       </c>
       <c r="Y4">
-        <v>0.1214231986127547</v>
+        <v>0.1799239391211856</v>
       </c>
       <c r="Z4">
-        <v>0.777936372439149</v>
+        <v>0.6700205584713255</v>
       </c>
       <c r="AA4">
-        <v>0.3330628700796257</v>
+        <v>0.2505138774735275</v>
       </c>
       <c r="AB4">
-        <v>0.05163395239135465</v>
+        <v>0.0391962939265409</v>
       </c>
       <c r="AC4">
-        <v>0.281428917688271</v>
+        <v>0.2113175835469866</v>
       </c>
       <c r="AD4">
-        <v>8.789999999999999</v>
+        <v>140.3</v>
       </c>
       <c r="AE4">
-        <v>8.234862250008664</v>
+        <v>0.5972530963316496</v>
       </c>
       <c r="AF4">
-        <v>17.02486225000866</v>
+        <v>140.8972530963317</v>
       </c>
       <c r="AG4">
-        <v>-38.07513774999134</v>
+        <v>-5.202746903668327</v>
       </c>
       <c r="AH4">
-        <v>0.01459576420307783</v>
+        <v>0.1651596609705899</v>
       </c>
       <c r="AI4">
-        <v>0.02565048142432823</v>
+        <v>0.1837956665344668</v>
       </c>
       <c r="AJ4">
-        <v>-0.03426103297365608</v>
+        <v>-0.00735893510318834</v>
       </c>
       <c r="AK4">
-        <v>-0.06255928752110519</v>
+        <v>-0.008384802475282843</v>
       </c>
       <c r="AL4">
-        <v>0.504</v>
+        <v>0.182</v>
       </c>
       <c r="AM4">
-        <v>-1.106</v>
+        <v>-1.268</v>
       </c>
       <c r="AN4">
-        <v>0.05920387957163063</v>
+        <v>0.7519441749784279</v>
       </c>
       <c r="AO4">
-        <v>283.9285714285714</v>
+        <v>1004.945054945055</v>
       </c>
       <c r="AP4">
-        <v>-0.256450042095988</v>
+        <v>-0.02788435657947577</v>
       </c>
       <c r="AQ4">
-        <v>-129.3851717902351</v>
+        <v>-144.2429022082019</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +981,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Administradora de Fondos de Pensiones ProVida S.A. (SNSE:PROVIDA)</t>
+          <t>Administradora de Fondos de Pensiones Capital S.A. (SNSE:AFPCAPITAL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,46 +990,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.029</v>
+        <v>0.0258</v>
       </c>
       <c r="E5">
-        <v>0.006939999999999999</v>
+        <v>0.07139999999999999</v>
       </c>
       <c r="G5">
-        <v>0.4778067885117493</v>
+        <v>0.7539082198688855</v>
       </c>
       <c r="H5">
-        <v>0.4778067885117493</v>
+        <v>0.7539082198688855</v>
       </c>
       <c r="I5">
-        <v>0.5645488830867421</v>
+        <v>0.4664649520927887</v>
       </c>
       <c r="J5">
-        <v>0.4374702526653612</v>
+        <v>0.3491447931157292</v>
       </c>
       <c r="K5">
-        <v>158.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L5">
-        <v>0.4604003481288076</v>
+        <v>0.3751891074130106</v>
       </c>
       <c r="M5">
-        <v>122.8</v>
+        <v>33.2</v>
       </c>
       <c r="N5">
-        <v>0.1053263573205249</v>
+        <v>0.0302147797597379</v>
       </c>
       <c r="O5">
-        <v>0.7737870195337114</v>
+        <v>0.4462365591397849</v>
       </c>
       <c r="P5">
-        <v>122.8</v>
+        <v>33.2</v>
       </c>
       <c r="Q5">
-        <v>0.1053263573205249</v>
+        <v>0.0302147797597379</v>
       </c>
       <c r="R5">
-        <v>0.7737870195337114</v>
+        <v>0.4462365591397849</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1041,73 +1038,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>78.7</v>
+        <v>108.5</v>
       </c>
       <c r="V5">
-        <v>0.06750150098636247</v>
+        <v>0.09874408445576993</v>
       </c>
       <c r="W5">
-        <v>0.08508014796547472</v>
+        <v>0.1150456162053502</v>
       </c>
       <c r="X5">
-        <v>0.05164190206503579</v>
+        <v>0.03912898724904983</v>
       </c>
       <c r="Y5">
-        <v>0.03343824590043894</v>
+        <v>0.07591662895630041</v>
       </c>
       <c r="Z5">
-        <v>0.369257072338821</v>
+        <v>0.5758006910769767</v>
       </c>
       <c r="AA5">
-        <v>0.1615389847345356</v>
+        <v>0.2010378131619649</v>
       </c>
       <c r="AB5">
-        <v>0.05156545777050301</v>
+        <v>0.03899949163006401</v>
       </c>
       <c r="AC5">
-        <v>0.1099735269640326</v>
+        <v>0.1620383215319009</v>
       </c>
       <c r="AD5">
-        <v>3.34</v>
+        <v>6.96</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>3.34</v>
+        <v>6.96</v>
       </c>
       <c r="AG5">
-        <v>-75.36</v>
+        <v>-101.54</v>
       </c>
       <c r="AH5">
-        <v>0.002856556395607403</v>
+        <v>0.006294313413398929</v>
       </c>
       <c r="AI5">
-        <v>0.001957520630157539</v>
+        <v>0.01076133341579566</v>
       </c>
       <c r="AJ5">
-        <v>-0.06910337997689217</v>
+        <v>-0.1018189840162044</v>
       </c>
       <c r="AK5">
-        <v>-0.04630300944984454</v>
+        <v>-0.1886448928027347</v>
       </c>
       <c r="AL5">
-        <v>0.225</v>
+        <v>0.594</v>
       </c>
       <c r="AM5">
-        <v>-1.245</v>
+        <v>-0.416</v>
       </c>
       <c r="AN5">
-        <v>0.01654284299157999</v>
+        <v>0.0718266253869969</v>
       </c>
       <c r="AO5">
-        <v>864.8888888888888</v>
+        <v>155.7239057239057</v>
       </c>
       <c r="AP5">
-        <v>-0.3732540861812779</v>
+        <v>-1.047884416924665</v>
       </c>
       <c r="AQ5">
-        <v>-156.3052208835341</v>
+        <v>-222.3557692307692</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1115,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Administradora de Fondos de Pensiones Cuprum S.A. (SNSE:CUPRUM)</t>
+          <t>Axxion S.A. (SNSE:AXXION)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1127,121 +1124,109 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0328</v>
-      </c>
-      <c r="E6">
-        <v>0.0987</v>
+        <v>0.325</v>
       </c>
       <c r="G6">
-        <v>0.4896631287494232</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4693124134748501</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5168435625288418</v>
+        <v>0.3328981723237598</v>
       </c>
       <c r="J6">
-        <v>0.4039197589511117</v>
+        <v>0.3328981723237598</v>
       </c>
       <c r="K6">
-        <v>93.09999999999999</v>
+        <v>-66.90000000000001</v>
       </c>
       <c r="L6">
-        <v>0.4296262113520997</v>
+        <v>-0.8733681462140993</v>
       </c>
       <c r="M6">
-        <v>100.9</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.1280944522026152</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>1.083780880773362</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>100.9</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.1280944522026152</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>1.083780880773362</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>68.5</v>
+        <v>0.093</v>
       </c>
       <c r="V6">
-        <v>0.08696204138631458</v>
+        <v>0.000734017363851618</v>
       </c>
       <c r="W6">
-        <v>0.08178144764581868</v>
+        <v>-0.8511450381679391</v>
       </c>
       <c r="X6">
-        <v>0.05182652231754685</v>
+        <v>0.04087349617001998</v>
       </c>
       <c r="Y6">
-        <v>0.02995492532827183</v>
+        <v>-0.8920185343379591</v>
       </c>
       <c r="Z6">
-        <v>0.3278822468482754</v>
+        <v>0.492984940146737</v>
       </c>
       <c r="AA6">
-        <v>0.1324381181113043</v>
+        <v>0.1641137855579869</v>
       </c>
       <c r="AB6">
-        <v>0.05154187241560144</v>
+        <v>0.03971929186621027</v>
       </c>
       <c r="AC6">
-        <v>0.08089624569570283</v>
+        <v>0.1243944936917766</v>
       </c>
       <c r="AD6">
-        <v>8.41</v>
+        <v>11</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>8.41</v>
+        <v>11</v>
       </c>
       <c r="AG6">
-        <v>-60.09</v>
+        <v>10.907</v>
       </c>
       <c r="AH6">
-        <v>0.01056386680232631</v>
+        <v>0.07988380537400146</v>
       </c>
       <c r="AI6">
-        <v>0.008195203710741466</v>
+        <v>1.090080269547121</v>
       </c>
       <c r="AJ6">
-        <v>-0.0825854509971001</v>
+        <v>0.07926195615048653</v>
       </c>
       <c r="AK6">
-        <v>-0.06274341919787828</v>
+        <v>1.090918183636727</v>
       </c>
       <c r="AL6">
-        <v>0.332</v>
+        <v>1.35</v>
       </c>
       <c r="AM6">
-        <v>-1.358</v>
-      </c>
-      <c r="AN6">
-        <v>0.06323308270676692</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="AO6">
-        <v>337.3493975903614</v>
-      </c>
-      <c r="AP6">
-        <v>-0.4518045112781955</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="AQ6">
-        <v>-82.47422680412372</v>
+        <v>25.65392354124748</v>
       </c>
     </row>
     <row r="7">
@@ -1252,7 +1237,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Axxion S.A. (SNSE:AXXION)</t>
+          <t>Administradora de Fondos de Pensiones ProVida S.A. (SNSE:PROVIDA)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1261,109 +1246,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.423</v>
+        <v>0.0171</v>
+      </c>
+      <c r="E7">
+        <v>0.00494</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.6769604441360166</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6769604441360166</v>
       </c>
       <c r="I7">
-        <v>0.9554140127388535</v>
+        <v>0.4857737682165163</v>
       </c>
       <c r="J7">
-        <v>0.7615463711404987</v>
+        <v>0.3851907842515785</v>
       </c>
       <c r="K7">
-        <v>35.5</v>
+        <v>119.1</v>
       </c>
       <c r="L7">
-        <v>22.61146496815287</v>
+        <v>0.4132546842470506</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>42.8</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.05177210596346921</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.3593618807724601</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>42.8</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.05177210596346921</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.3593618807724601</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>0.12</v>
+        <v>57.7</v>
       </c>
       <c r="V7">
-        <v>0.001000834028356964</v>
+        <v>0.06979557275916294</v>
       </c>
       <c r="W7">
-        <v>0.7426778242677825</v>
+        <v>0.06643239625167335</v>
       </c>
       <c r="X7">
-        <v>0.06673175066094515</v>
+        <v>0.03914953035732076</v>
       </c>
       <c r="Y7">
-        <v>0.6759460736068373</v>
+        <v>0.0272828658943526</v>
       </c>
       <c r="Z7">
-        <v>0.01194188788316726</v>
+        <v>0.3251830706218196</v>
       </c>
       <c r="AA7">
-        <v>0.00909430138199272</v>
+        <v>0.1252575219981551</v>
       </c>
       <c r="AB7">
-        <v>0.0531738880780121</v>
+        <v>0.03905754033357128</v>
       </c>
       <c r="AC7">
-        <v>-0.04407958669601938</v>
+        <v>0.08619998166458384</v>
       </c>
       <c r="AD7">
-        <v>76.90000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>76.90000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="AG7">
-        <v>76.78</v>
+        <v>-51.68000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.3907520325203252</v>
+        <v>0.007229320780094148</v>
       </c>
       <c r="AI7">
-        <v>0.4945337620578779</v>
+        <v>0.003830198763138472</v>
       </c>
       <c r="AJ7">
-        <v>0.3903803131991052</v>
+        <v>-0.06668215013806096</v>
       </c>
       <c r="AK7">
-        <v>0.4941433903977346</v>
+        <v>-0.0341342914888839</v>
       </c>
       <c r="AL7">
-        <v>3.56</v>
+        <v>0.363</v>
       </c>
       <c r="AM7">
-        <v>2.701</v>
+        <v>-0.383</v>
+      </c>
+      <c r="AN7">
+        <v>0.04183460736622654</v>
       </c>
       <c r="AO7">
-        <v>0.4213483146067415</v>
+        <v>385.6749311294766</v>
+      </c>
+      <c r="AP7">
+        <v>-0.3591382904794997</v>
       </c>
       <c r="AQ7">
-        <v>0.5553498704183636</v>
+        <v>-365.5352480417754</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1371,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Oro Blanco S.A. (SNSE:ORO BLANCO)</t>
+          <t>Inversiones Tricahue S.A. (SNSE:TRICAHUE)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1382,29 +1379,47 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D8">
+        <v>-0.08109999999999999</v>
+      </c>
       <c r="E8">
-        <v>0.149</v>
+        <v>-0.08349999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.045454545454545</v>
+      </c>
+      <c r="H8">
+        <v>1.045454545454545</v>
+      </c>
+      <c r="I8">
+        <v>0.9545454545454545</v>
+      </c>
+      <c r="J8">
+        <v>0.9545454545454545</v>
       </c>
       <c r="K8">
-        <v>43.7</v>
+        <v>2.96</v>
+      </c>
+      <c r="L8">
+        <v>0.961038961038961</v>
       </c>
       <c r="M8">
-        <v>15.3</v>
+        <v>3.02</v>
       </c>
       <c r="N8">
-        <v>0.03319592102408331</v>
+        <v>0.08579545454545454</v>
       </c>
       <c r="O8">
-        <v>0.3501144164759725</v>
+        <v>1.02027027027027</v>
       </c>
       <c r="P8">
-        <v>15.3</v>
+        <v>3.02</v>
       </c>
       <c r="Q8">
-        <v>0.03319592102408331</v>
+        <v>0.08579545454545454</v>
       </c>
       <c r="R8">
-        <v>0.3501144164759725</v>
+        <v>1.02027027027027</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1413,73 +1428,73 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>44.3</v>
+        <v>0.014</v>
       </c>
       <c r="V8">
-        <v>0.09611629420698634</v>
+        <v>0.0003977272727272727</v>
       </c>
       <c r="W8">
-        <v>0.03359987697985545</v>
+        <v>0.08314606741573033</v>
       </c>
       <c r="X8">
-        <v>0.09482048192917895</v>
+        <v>0.03899477306466325</v>
       </c>
       <c r="Y8">
-        <v>-0.0612206049493235</v>
+        <v>0.04415129435106708</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.08643915581499774</v>
       </c>
       <c r="AA8">
-        <v>-0.003426346528228424</v>
+        <v>0.08251010327795238</v>
       </c>
       <c r="AB8">
-        <v>0.0495954276016102</v>
+        <v>0.03899298783298806</v>
       </c>
       <c r="AC8">
-        <v>-0.05302177412983863</v>
+        <v>0.04351711544496432</v>
       </c>
       <c r="AD8">
-        <v>843.4</v>
+        <v>0.005</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>843.4</v>
+        <v>0.005</v>
       </c>
       <c r="AG8">
-        <v>799.1</v>
+        <v>-0.009000000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.6466303764471364</v>
+        <v>0.000142025280499929</v>
       </c>
       <c r="AI8">
-        <v>0.3653454624214858</v>
+        <v>0.0001677570877369569</v>
       </c>
       <c r="AJ8">
-        <v>0.6342063492063492</v>
+        <v>-0.0002557472080929783</v>
       </c>
       <c r="AK8">
-        <v>0.352928186555958</v>
+        <v>-0.0003021046624819577</v>
       </c>
       <c r="AL8">
-        <v>49.8</v>
+        <v>0.005</v>
       </c>
       <c r="AM8">
-        <v>31.4</v>
+        <v>0.005</v>
       </c>
       <c r="AN8">
-        <v>-159.7348484848485</v>
+        <v>0.001700680272108844</v>
       </c>
       <c r="AO8">
-        <v>-0.1060240963855422</v>
+        <v>588</v>
       </c>
       <c r="AP8">
-        <v>-151.344696969697</v>
+        <v>-0.003061224489795919</v>
       </c>
       <c r="AQ8">
-        <v>-0.1681528662420382</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9">
@@ -1490,7 +1505,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nitratos de Chile S.A. (SNSE:NITRATOS)</t>
+          <t>Administradora de Fondos de Pensiones Cuprum S.A. (SNSE:CUPRUM)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1498,29 +1513,47 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D9">
+        <v>-0.00199</v>
+      </c>
       <c r="E9">
-        <v>-0.07049999999999999</v>
+        <v>-0.252</v>
+      </c>
+      <c r="G9">
+        <v>0.8550092194222497</v>
+      </c>
+      <c r="H9">
+        <v>0.8377381684081132</v>
+      </c>
+      <c r="I9">
+        <v>0.3435771358328212</v>
+      </c>
+      <c r="J9">
+        <v>0.2797783150393331</v>
       </c>
       <c r="K9">
-        <v>10.4</v>
+        <v>47.8</v>
+      </c>
+      <c r="L9">
+        <v>0.2937922556853104</v>
       </c>
       <c r="M9">
-        <v>3.7</v>
+        <v>43.6</v>
       </c>
       <c r="N9">
-        <v>0.02396373056994819</v>
+        <v>0.07582608695652174</v>
       </c>
       <c r="O9">
-        <v>0.3557692307692308</v>
+        <v>0.9121338912133892</v>
       </c>
       <c r="P9">
-        <v>3.7</v>
+        <v>43.6</v>
       </c>
       <c r="Q9">
-        <v>0.02396373056994819</v>
+        <v>0.07582608695652174</v>
       </c>
       <c r="R9">
-        <v>0.3557692307692308</v>
+        <v>0.9121338912133892</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1529,73 +1562,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.64</v>
+        <v>120.5</v>
       </c>
       <c r="V9">
-        <v>0.01062176165803109</v>
+        <v>0.2095652173913043</v>
       </c>
       <c r="W9">
-        <v>0.06035983749274521</v>
+        <v>0.046964040086461</v>
       </c>
       <c r="X9">
-        <v>0.1105499675548266</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y9">
-        <v>-0.0501901300620814</v>
+        <v>0.007972345848046895</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.2731194708834835</v>
       </c>
       <c r="AA9">
-        <v>-0.005271622587562546</v>
+        <v>0.07641290536821521</v>
       </c>
       <c r="AB9">
-        <v>0.04938952763159682</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC9">
-        <v>-0.05466115021915936</v>
+        <v>0.03742121112980111</v>
       </c>
       <c r="AD9">
-        <v>385.3</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>385.3</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>383.66</v>
+        <v>-120.5</v>
       </c>
       <c r="AH9">
-        <v>0.7139151380396516</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.678942731277533</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.7130431550384715</v>
+        <v>-0.2651265126512651</v>
       </c>
       <c r="AK9">
-        <v>0.6780122291732937</v>
+        <v>-0.1460960232783705</v>
       </c>
       <c r="AL9">
-        <v>21.2</v>
+        <v>0.408</v>
       </c>
       <c r="AM9">
-        <v>21.117</v>
+        <v>-0.3710000000000001</v>
       </c>
       <c r="AN9">
-        <v>-130.6101694915254</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>-0.1391509433962264</v>
+        <v>137.0098039215686</v>
       </c>
       <c r="AP9">
-        <v>-130.0542372881356</v>
+        <v>-1.613119143239625</v>
       </c>
       <c r="AQ9">
-        <v>-0.1396978737510063</v>
+        <v>-150.6738544474393</v>
       </c>
     </row>
     <row r="10">
@@ -1606,7 +1639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Pampa Calichera, S.A. (SNSE:CALICHERAA)</t>
+          <t>Potasios de Chile S.A. (SNSE:POTASIOS-A)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1614,29 +1647,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="E10">
-        <v>0.0581</v>
-      </c>
       <c r="K10">
-        <v>58.7</v>
+        <v>-5.63</v>
       </c>
       <c r="M10">
-        <v>17.7</v>
+        <v>0.714</v>
       </c>
       <c r="N10">
-        <v>0.0289736454411524</v>
+        <v>0.002526539278131634</v>
       </c>
       <c r="O10">
-        <v>0.3015332197614991</v>
+        <v>-0.1268206039076377</v>
       </c>
       <c r="P10">
-        <v>17.7</v>
+        <v>0.714</v>
       </c>
       <c r="Q10">
-        <v>0.0289736454411524</v>
+        <v>0.002526539278131634</v>
       </c>
       <c r="R10">
-        <v>0.3015332197614991</v>
+        <v>-0.1268206039076377</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1645,73 +1675,67 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>43.8</v>
+        <v>27.9</v>
       </c>
       <c r="V10">
-        <v>0.07169749549844491</v>
+        <v>0.09872611464968152</v>
       </c>
       <c r="W10">
-        <v>0.05206670214653184</v>
+        <v>-0.02194076383476228</v>
       </c>
       <c r="X10">
-        <v>0.08147446691627065</v>
+        <v>0.06935654730551015</v>
       </c>
       <c r="Y10">
-        <v>-0.02940776476973881</v>
+        <v>-0.09129731114027242</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>-0.002172163666342155</v>
+        <v>-0.002477395736354599</v>
       </c>
       <c r="AB10">
-        <v>0.05386076793431727</v>
+        <v>0.03971452501302227</v>
       </c>
       <c r="AC10">
-        <v>-0.05603293160065942</v>
+        <v>-0.04219192074937687</v>
       </c>
       <c r="AD10">
-        <v>772.9</v>
+        <v>395.9</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>772.9</v>
+        <v>395.9</v>
       </c>
       <c r="AG10">
-        <v>729.1</v>
+        <v>368</v>
       </c>
       <c r="AH10">
-        <v>0.5585344702991761</v>
+        <v>0.5834929992630803</v>
       </c>
       <c r="AI10">
-        <v>0.3980327531156658</v>
+        <v>0.5854776693286009</v>
       </c>
       <c r="AJ10">
-        <v>0.5441044776119404</v>
+        <v>0.5656317245619428</v>
       </c>
       <c r="AK10">
-        <v>0.384141201264489</v>
+        <v>0.5676384389942928</v>
       </c>
       <c r="AL10">
-        <v>45.5</v>
+        <v>19.5</v>
       </c>
       <c r="AM10">
-        <v>22.1</v>
-      </c>
-      <c r="AN10">
-        <v>-200.2331606217617</v>
+        <v>18.675</v>
       </c>
       <c r="AO10">
-        <v>-0.08483516483516483</v>
-      </c>
-      <c r="AP10">
-        <v>-188.8860103626943</v>
+        <v>-0.08051282051282052</v>
       </c>
       <c r="AQ10">
-        <v>-0.1746606334841629</v>
+        <v>-0.08406961178045515</v>
       </c>
     </row>
     <row r="11">
@@ -1722,112 +1746,436 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Sociedad de Inversiones Oro Blanco S.A. (SNSE:ORO BLANCO)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>-0.414</v>
+      </c>
+      <c r="K11">
+        <v>2.47</v>
+      </c>
+      <c r="M11">
+        <v>3.59</v>
+      </c>
+      <c r="N11">
+        <v>0.005119064594324825</v>
+      </c>
+      <c r="O11">
+        <v>1.453441295546559</v>
+      </c>
+      <c r="P11">
+        <v>3.59</v>
+      </c>
+      <c r="Q11">
+        <v>0.005119064594324825</v>
+      </c>
+      <c r="R11">
+        <v>1.453441295546559</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>187</v>
+      </c>
+      <c r="V11">
+        <v>0.2666476543561956</v>
+      </c>
+      <c r="W11">
+        <v>0.001853936801020791</v>
+      </c>
+      <c r="X11">
+        <v>0.0627312050775755</v>
+      </c>
+      <c r="Y11">
+        <v>-0.06087726827655471</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>-0.002413814069435156</v>
+      </c>
+      <c r="AB11">
+        <v>0.04215776720389411</v>
+      </c>
+      <c r="AC11">
+        <v>-0.04457158127332927</v>
+      </c>
+      <c r="AD11">
+        <v>768.1</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>768.1</v>
+      </c>
+      <c r="AG11">
+        <v>581.1</v>
+      </c>
+      <c r="AH11">
+        <v>0.5227303661358378</v>
+      </c>
+      <c r="AI11">
+        <v>0.3232744107744108</v>
+      </c>
+      <c r="AJ11">
+        <v>0.4531347473487211</v>
+      </c>
+      <c r="AK11">
+        <v>0.2654636820465966</v>
+      </c>
+      <c r="AL11">
+        <v>58.1</v>
+      </c>
+      <c r="AM11">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="AO11">
+        <v>-0.06833046471600689</v>
+      </c>
+      <c r="AQ11">
+        <v>-0.09826732673267326</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sociedad de Inversiones Pampa Calichera S.A. (SNSE:CALICHERAA)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="E12">
+        <v>-0.258</v>
+      </c>
+      <c r="K12">
+        <v>10.5</v>
+      </c>
+      <c r="M12">
+        <v>5.04</v>
+      </c>
+      <c r="N12">
+        <v>0.006281939424155553</v>
+      </c>
+      <c r="O12">
+        <v>0.48</v>
+      </c>
+      <c r="P12">
+        <v>5.04</v>
+      </c>
+      <c r="Q12">
+        <v>0.006281939424155553</v>
+      </c>
+      <c r="R12">
+        <v>0.48</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>164.1</v>
+      </c>
+      <c r="V12">
+        <v>0.204536956250779</v>
+      </c>
+      <c r="W12">
+        <v>0.008982804345966293</v>
+      </c>
+      <c r="X12">
+        <v>0.05717076063341729</v>
+      </c>
+      <c r="Y12">
+        <v>-0.048187956287451</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>-0.001475308413488232</v>
+      </c>
+      <c r="AB12">
+        <v>0.04314632233836693</v>
+      </c>
+      <c r="AC12">
+        <v>-0.04462163075185516</v>
+      </c>
+      <c r="AD12">
+        <v>672.9</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>672.9</v>
+      </c>
+      <c r="AG12">
+        <v>508.8</v>
+      </c>
+      <c r="AH12">
+        <v>0.4561415401301519</v>
+      </c>
+      <c r="AI12">
+        <v>0.3380727491961414</v>
+      </c>
+      <c r="AJ12">
+        <v>0.3880710853481809</v>
+      </c>
+      <c r="AK12">
+        <v>0.2785960685539068</v>
+      </c>
+      <c r="AL12">
+        <v>53.6</v>
+      </c>
+      <c r="AM12">
+        <v>30.8</v>
+      </c>
+      <c r="AO12">
+        <v>-0.05205223880597015</v>
+      </c>
+      <c r="AQ12">
+        <v>-0.09058441558441559</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Norte Grande S.A. (SNSE:NORTEGRAN)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="E11">
-        <v>0.191</v>
-      </c>
-      <c r="K11">
-        <v>34.9</v>
-      </c>
-      <c r="M11">
-        <v>15.3</v>
-      </c>
-      <c r="N11">
-        <v>0.03943298969072165</v>
-      </c>
-      <c r="O11">
-        <v>0.4383954154727794</v>
-      </c>
-      <c r="P11">
-        <v>15.3</v>
-      </c>
-      <c r="Q11">
-        <v>0.03943298969072165</v>
-      </c>
-      <c r="R11">
-        <v>0.4383954154727794</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>46.4</v>
-      </c>
-      <c r="V11">
-        <v>0.1195876288659794</v>
-      </c>
-      <c r="W11">
-        <v>0.03121925038017711</v>
-      </c>
-      <c r="X11">
-        <v>0.1139462646224227</v>
-      </c>
-      <c r="Y11">
-        <v>-0.08272701424224561</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>-0.008929353059616564</v>
-      </c>
-      <c r="AB11">
-        <v>0.05253138696336564</v>
-      </c>
-      <c r="AC11">
-        <v>-0.0614607400229822</v>
-      </c>
-      <c r="AD11">
-        <v>1024</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>1024</v>
-      </c>
-      <c r="AG11">
-        <v>977.6</v>
-      </c>
-      <c r="AH11">
-        <v>0.7252124645892352</v>
-      </c>
-      <c r="AI11">
-        <v>0.4037377281867287</v>
-      </c>
-      <c r="AJ11">
-        <v>0.715875805506737</v>
-      </c>
-      <c r="AK11">
-        <v>0.3926262098879473</v>
-      </c>
-      <c r="AL11">
-        <v>59.9</v>
-      </c>
-      <c r="AM11">
-        <v>58.64</v>
-      </c>
-      <c r="AN11">
-        <v>-101.3861386138614</v>
-      </c>
-      <c r="AO11">
-        <v>-0.1702838063439065</v>
-      </c>
-      <c r="AP11">
-        <v>-96.79207920792079</v>
-      </c>
-      <c r="AQ11">
-        <v>-0.1739427012278308</v>
+      <c r="K13">
+        <v>-19.8</v>
+      </c>
+      <c r="M13">
+        <v>1.13</v>
+      </c>
+      <c r="N13">
+        <v>0.001792228390166534</v>
+      </c>
+      <c r="O13">
+        <v>-0.05707070707070706</v>
+      </c>
+      <c r="P13">
+        <v>1.13</v>
+      </c>
+      <c r="Q13">
+        <v>0.001792228390166534</v>
+      </c>
+      <c r="R13">
+        <v>-0.05707070707070706</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>215</v>
+      </c>
+      <c r="V13">
+        <v>0.3409992069785884</v>
+      </c>
+      <c r="W13">
+        <v>-0.01732131921966582</v>
+      </c>
+      <c r="X13">
+        <v>0.07196647516283182</v>
+      </c>
+      <c r="Y13">
+        <v>-0.08928779438249765</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>-0.006511552754887706</v>
+      </c>
+      <c r="AB13">
+        <v>0.03973916632742765</v>
+      </c>
+      <c r="AC13">
+        <v>-0.04625071908231535</v>
+      </c>
+      <c r="AD13">
+        <v>959.2</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>959.2</v>
+      </c>
+      <c r="AG13">
+        <v>744.2</v>
+      </c>
+      <c r="AH13">
+        <v>0.6033842863433352</v>
+      </c>
+      <c r="AI13">
+        <v>0.3680313087518705</v>
+      </c>
+      <c r="AJ13">
+        <v>0.5413544773405107</v>
+      </c>
+      <c r="AK13">
+        <v>0.3112114749299544</v>
+      </c>
+      <c r="AL13">
+        <v>68.8</v>
+      </c>
+      <c r="AM13">
+        <v>68.395</v>
+      </c>
+      <c r="AN13">
+        <v>-120.2005012531328</v>
+      </c>
+      <c r="AO13">
+        <v>-0.1171511627906977</v>
+      </c>
+      <c r="AP13">
+        <v>-93.25814536340852</v>
+      </c>
+      <c r="AQ13">
+        <v>-0.1178448717011478</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nitratos de Chile S.A. (SNSE:NITRATOS)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="K14">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.109</v>
+      </c>
+      <c r="N14">
+        <v>0.0008320610687022901</v>
+      </c>
+      <c r="O14">
+        <v>-0.01141361256544503</v>
+      </c>
+      <c r="P14">
+        <v>0.109</v>
+      </c>
+      <c r="Q14">
+        <v>0.0008320610687022901</v>
+      </c>
+      <c r="R14">
+        <v>-0.01141361256544503</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>27.9</v>
+      </c>
+      <c r="V14">
+        <v>0.2129770992366412</v>
+      </c>
+      <c r="W14">
+        <v>-0.0532329988851728</v>
+      </c>
+      <c r="X14">
+        <v>0.1057041714548863</v>
+      </c>
+      <c r="Y14">
+        <v>-0.1589371703400591</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>-0.004226902994352288</v>
+      </c>
+      <c r="AB14">
+        <v>0.04586632171156427</v>
+      </c>
+      <c r="AC14">
+        <v>-0.05009322470591655</v>
+      </c>
+      <c r="AD14">
+        <v>403.2</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>403.2</v>
+      </c>
+      <c r="AG14">
+        <v>375.3</v>
+      </c>
+      <c r="AH14">
+        <v>0.7547734930737551</v>
+      </c>
+      <c r="AI14">
+        <v>0.666005946481665</v>
+      </c>
+      <c r="AJ14">
+        <v>0.7412601224570413</v>
+      </c>
+      <c r="AK14">
+        <v>0.6498701298701299</v>
+      </c>
+      <c r="AL14">
+        <v>21.9</v>
+      </c>
+      <c r="AM14">
+        <v>21.899</v>
+      </c>
+      <c r="AO14">
+        <v>-0.108675799086758</v>
+      </c>
+      <c r="AQ14">
+        <v>-0.1086807616786155</v>
       </c>
     </row>
   </sheetData>
